--- a/BA/NTC calc.xlsx
+++ b/BA/NTC calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="20016" windowHeight="8028"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19440" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>vout</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>min R</t>
+  </si>
+  <si>
+    <t>manipuliert</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1">
@@ -746,7 +749,9 @@
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -801,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
